--- a/assets/upload/1.1.tridarma_pendidikan.xlsx
+++ b/assets/upload/1.1.tridarma_pendidikan.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KaPulahtaFTUP\Documents\TEMPLATE BORANG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PULAHTA\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="20910" windowHeight="13740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="tridarma_pendidikan" sheetId="1" r:id="rId1"/>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1014,10 +1014,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="A3" sqref="A3:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1070,76 +1070,6 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -1147,12 +1077,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1326,15 +1253,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B70DFD9-6126-4BFB-B019-809C47AB13C8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1F3BDFC-347C-4813-8EE6-D77276BB6B03}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="0298b850-3ff0-4474-a5c7-d30be56e2652"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1358,17 +1296,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1F3BDFC-347C-4813-8EE6-D77276BB6B03}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B70DFD9-6126-4BFB-B019-809C47AB13C8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="0298b850-3ff0-4474-a5c7-d30be56e2652"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/assets/upload/1.1.tridarma_pendidikan.xlsx
+++ b/assets/upload/1.1.tridarma_pendidikan.xlsx
@@ -1,39 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PULAHTA\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ridho\xampp7.4.25\htdocs\borangft\assets\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4C058E-061E-4E02-9AA1-3BB3BDBFE1BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890"/>
+    <workbookView xWindow="-25320" yWindow="-2025" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tridarma_pendidikan" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Adm-pulahta</author>
     <author>KaPulahtaFTUP</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -41,39 +33,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adm-pulahta:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Arsitektur s1
-Teknik Sipil S1
-Teknik Mesin S1
-Teknik Industri S1
-Teknik Informatika S1
-Teknik Elektro S1
-Teknik Mesin D3
-Teknik Elektro D3
-Teknik Mesin S2</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>KaPulahtaFTUP:</t>
         </r>
@@ -82,7 +42,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 1.Internasional
@@ -96,10 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>prodi</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>lembaga_mitra</t>
   </si>
@@ -125,7 +82,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -283,14 +240,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1013,28 +970,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1045,22 +1001,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1068,7 +1021,6 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1077,9 +1029,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1253,26 +1208,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1F3BDFC-347C-4813-8EE6-D77276BB6B03}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B70DFD9-6126-4BFB-B019-809C47AB13C8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="0298b850-3ff0-4474-a5c7-d30be56e2652"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1296,9 +1240,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B70DFD9-6126-4BFB-B019-809C47AB13C8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1F3BDFC-347C-4813-8EE6-D77276BB6B03}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="0298b850-3ff0-4474-a5c7-d30be56e2652"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>